--- a/Machines.xlsx
+++ b/Machines.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>Номер</t>
   </si>
@@ -43,19 +43,52 @@
     <t>Статус</t>
   </si>
   <si>
-    <t>2022-06-15</t>
+    <t>2022-06-16</t>
+  </si>
+  <si>
+    <t>2022-04-14</t>
+  </si>
+  <si>
+    <t>2022-06-02</t>
+  </si>
+  <si>
+    <t>2022-06-03</t>
   </si>
   <si>
     <t>Росгормаш</t>
   </si>
   <si>
+    <t>Новочеркасский</t>
+  </si>
+  <si>
     <t>ОАО РЖД</t>
   </si>
   <si>
+    <t xml:space="preserve">РЖД </t>
+  </si>
+  <si>
+    <t>РЖД</t>
+  </si>
+  <si>
+    <t>2022-06-07</t>
+  </si>
+  <si>
+    <t>2018-02-08</t>
+  </si>
+  <si>
+    <t>2022-06-08</t>
+  </si>
+  <si>
     <t>2022-06-01</t>
   </si>
   <si>
+    <t>Не допущен</t>
+  </si>
+  <si>
     <t>Допущен</t>
+  </si>
+  <si>
+    <t>Допущен c ограничениями</t>
   </si>
 </sst>
 </file>
@@ -79,7 +112,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,7 +121,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFA8072"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF98FB98"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0E68C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -120,12 +165,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -434,7 +481,7 @@
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
     <col min="8" max="8" width="6.7109375" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -471,28 +518,173 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>10000</v>
+        <v>46555500</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2">
+        <v>6.57</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>74120568</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2">
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="3">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>74102596</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3">
+        <v>23</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="3">
+        <v>10</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>10002587</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="4">
+        <v>9</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>23044447</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="3">
+        <v>10</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>31110022</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3">
+        <v>14</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="H7" s="3">
         <v>10</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
+      <c r="I7" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
